--- a/Mr. Bhanu Prasad Ji.xlsx
+++ b/Mr. Bhanu Prasad Ji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghanshyam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A62E67-E378-8843-9F47-6535B555F36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDD287-6AF4-F94D-B9DA-9258169AE220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Plywood</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>1 Pkt</t>
+  </si>
+  <si>
+    <t>Ghanshyam</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -988,6 +991,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
